--- a/xizi-poi/EasyTest.xlsx
+++ b/xizi-poi/EasyTest.xlsx
@@ -121,7 +121,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -136,7 +136,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -151,7 +151,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -166,7 +166,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -181,7 +181,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -196,7 +196,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -211,7 +211,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -226,7 +226,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -241,7 +241,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -256,7 +256,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2020-06-26 21:28:45</t>
+          <t>2020-09-22 19:50:06</t>
         </is>
       </c>
       <c r="C11" t="n">
